--- a/biology/Botanique/Caloplaca_oasis/Caloplaca_oasis.xlsx
+++ b/biology/Botanique/Caloplaca_oasis/Caloplaca_oasis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caloplaca oasis est une espèce de lichens de la famille des Teloschistaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des formes et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (4 février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (4 février 2023) :
 Caloplaca oasis f. oasis
 Caloplaca oasis f. rohlenae (Servít) Clauzade &amp; Cl. Roux, 1976
 Caloplaca oasis subsp. oasis
@@ -545,11 +559,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Caloplaca oasis (A. Massal.) Szatala, 1932[1].
-Le basionyme de ce taxon est : Callopisma aurantiacum var. oasis A. Massal., 1856[1]
-Caloplaca oasis a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Caloplaca oasis (A. Massal.) Szatala, 1932.
+Le basionyme de ce taxon est : Callopisma aurantiacum var. oasis A. Massal., 1856
+Caloplaca oasis a pour synonymes :
 Callopisma aurantiacum var. oasis A.Massal., 1856
 Caloplaca aurantiaca f. oasis (A.Massal.) Th. Fr.
 Caloplaca oasis (A. Massal.) Szatala, 1932
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(hu) Ödön Szatala, « Lichenes a divo H. Lojka relictae », Magyar Botanikai Lapok, Hongrie, vol. 31,‎ 1932, p. 67-126.</t>
         </is>
